--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
@@ -534,13 +534,13 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H2">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,10 +567,10 @@
         <v>1.020426984694</v>
       </c>
       <c r="S2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="T2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.265412</v>
+        <v>0.116689</v>
       </c>
       <c r="H3">
-        <v>0.7962359999999999</v>
+        <v>0.350067</v>
       </c>
       <c r="I3">
-        <v>0.5614432429954977</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J3">
-        <v>0.5614432429954979</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1451508147973333</v>
+        <v>0.06381589162466667</v>
       </c>
       <c r="R3">
-        <v>1.306357333176</v>
+        <v>0.574343024622</v>
       </c>
       <c r="S3">
-        <v>0.5614432429954977</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="T3">
-        <v>0.5614432429954979</v>
+        <v>0.3601416011505865</v>
       </c>
     </row>
   </sheetData>
